--- a/scoresheets/clean/Step_1/Binge.xlsx
+++ b/scoresheets/clean/Step_1/Binge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/kschaumberg/ALSPAC/Data Cleaning and Analysis/data_cleaning/ALSPAC-scorekeep/scoresheets/clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Desktop/ALSPAC-scorekeep/scoresheets/clean/Step_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9BC417-D27D-494F-9AA7-D9CC264DCA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F23BA2-5DDE-CD47-9932-EA077A21735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15600" yWindow="860" windowWidth="35600" windowHeight="24280" xr2:uid="{3D5445C9-C7B1-4746-8E87-9857EF2EB83E}"/>
   </bookViews>
@@ -1308,16 +1308,16 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C99" sqref="C99"/>
+      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5" style="13" customWidth="1" outlineLevel="4"/>
-    <col min="2" max="2" width="21.1640625" style="13" customWidth="1" outlineLevel="4"/>
+    <col min="2" max="2" width="37.1640625" style="13" customWidth="1" outlineLevel="4"/>
     <col min="3" max="3" width="50.6640625" style="13" customWidth="1" outlineLevel="4"/>
     <col min="4" max="4" width="23.33203125" style="16" customWidth="1" outlineLevel="4"/>
     <col min="5" max="5" width="7" style="13" customWidth="1"/>
